--- a/APP_PM/static/plantillas/plantilla_productos.xlsx
+++ b/APP_PM/static/plantillas/plantilla_productos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>nombre_producto</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>marca</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -46,7 +43,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -203,51 +200,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -257,10 +242,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,10 +565,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="57.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="57.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="24.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -596,66 +578,42 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>4</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>4</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
